--- a/exercise/hfc_inputs.xlsx
+++ b/exercise/hfc_inputs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="1. incomplete" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>variable</t>
   </si>
@@ -57,9 +57,6 @@
     <t>consent_value</t>
   </si>
   <si>
-    <t>consent</t>
-  </si>
-  <si>
     <t>specify_variable</t>
   </si>
   <si>
@@ -69,94 +66,13 @@
     <t>iqr_multiplier</t>
   </si>
   <si>
-    <t>gpsLatitude</t>
-  </si>
-  <si>
-    <t>gpsLongitude</t>
-  </si>
-  <si>
-    <t>SubmissionDate</t>
-  </si>
-  <si>
-    <t>starttime</t>
-  </si>
-  <si>
-    <t>endtime</t>
-  </si>
-  <si>
-    <t>deviceid</t>
-  </si>
-  <si>
-    <t>audit_data</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>ward</t>
-  </si>
-  <si>
-    <t>literacy</t>
-  </si>
-  <si>
-    <t>consentsign</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>language_other</t>
-  </si>
-  <si>
-    <t>edustatus</t>
-  </si>
-  <si>
-    <t>eduattain</t>
-  </si>
-  <si>
-    <t>employmt</t>
-  </si>
-  <si>
-    <t>employyear</t>
-  </si>
-  <si>
-    <t>occupation</t>
-  </si>
-  <si>
-    <t>occupation_other</t>
-  </si>
-  <si>
-    <t>salary</t>
-  </si>
-  <si>
-    <t>relationship</t>
-  </si>
-  <si>
-    <t>childnum</t>
-  </si>
-  <si>
-    <t>finalnotes</t>
-  </si>
-  <si>
-    <t>intstatus</t>
-  </si>
-  <si>
-    <t>intstatus_other</t>
-  </si>
-  <si>
     <t>submission_date</t>
-  </si>
-  <si>
-    <t>ta_*</t>
   </si>
   <si>
     <t>notes</t>
   </si>
   <si>
     <t>other_unique</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>assert</t>
@@ -189,46 +105,7 @@
     <t>days</t>
   </si>
   <si>
-    <t>enumid</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>pregnant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">employyear </t>
-  </si>
-  <si>
-    <t>supid</t>
-  </si>
-  <si>
-    <t>instatus</t>
-  </si>
-  <si>
     <t>if_condition</t>
-  </si>
-  <si>
-    <t>pregnant==.</t>
-  </si>
-  <si>
-    <t>gender==0</t>
-  </si>
-  <si>
-    <t>salary==.</t>
-  </si>
-  <si>
-    <t>employmt==0</t>
-  </si>
-  <si>
-    <t>occupation==.</t>
-  </si>
-  <si>
-    <t>employyear==4</t>
   </si>
 </sst>
 </file>
@@ -1033,10 +910,1019 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9810750" y="314325"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="TextBox 8"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Rectangle 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Rectangle 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="47625"/>
+          <a:ext cx="3648075" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>HFC Check #</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng" baseline="0"/>
+            <a:t> 10</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" u="sng"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Check date</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> variables.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t>This check verifies that:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t>    1. survey start and end dates are unmissing</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t>    2. survey start and end dates are equal</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t>    3. survey start dates are not before start of data collection</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t>    4. survey start dates are not after the current date</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t>    5. survey start dates within the same geographic cluster </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t>        are within X days of each other (OPTIONAL).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="1971675"/>
+          <a:ext cx="3667125" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>startdate</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the variable containing the survey start date. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="2686050"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>enddate</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>This column specifies the variable containing the survey end date. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="3381375"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>surveystart</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>This column specifies the variable containing date that data collection began.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="4076700"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>enum</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>area</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the variable representing geographic clusters.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="4772025"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>days</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the number of days to that surveys within the same cluster should fall within</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="5476875"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>output_variable</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies additional variable values to display in the output file. By default </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>id </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>enumerator</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t> are displayed.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="6172200"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>notes</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="Group 11"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13954125" y="590550"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="TextBox 12"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Rectangle 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Rectangle 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1429,10 +2315,179 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Group 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9810750" y="361950"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="TextBox 7"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Rectangle 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Rectangle 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1882,6 +2937,175 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12582525" y="495300"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="TextBox 8"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Rectangle 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Rectangle 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2285,6 +3509,175 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Group 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9810750" y="323850"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="TextBox 2"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="Rectangle 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Rectangle 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2679,6 +4072,175 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="Group 11"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9810750" y="304800"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="TextBox 12"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Rectangle 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Rectangle 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3003,10 +4565,687 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Group 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8439150" y="304800"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="TextBox 7"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Rectangle 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Rectangle 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="47625"/>
+          <a:ext cx="3648075" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>HFC Check # 5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Check that follow up record</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>s match master</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t>This check applies to follow up or post-census surveys. It checks relevant identification variables against a master tracking list to ensure the data are matching. The name of the master list is specified in the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0"/>
+            <a:t>master_check.do </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t>file. Note, that you must have </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1" baseline="0"/>
+            <a:t>cfout</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
+            <a:t> installed for this check to work properly.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="1790701"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>variable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the names of the variables to check for matches in the master and follow up.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="2476500"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>output_variable</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies additional variable values to display in the output file. By default </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>id </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>enumerator</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t> are displayed.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="3181350"/>
+          <a:ext cx="3667125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>notes</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Group 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8429625" y="495300"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Rectangle 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3467,10 +5706,179 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Group 7"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11201400" y="381000"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="TextBox 8"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Rectangle 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Rectangle 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3791,10 +6199,179 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1228725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Group 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8420100" y="600075"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Rectangle 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4439,10 +7016,179 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="Group 9"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13954125" y="581025"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="TextBox 10"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Rectangle 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Rectangle 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4765,675 +7511,173 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Group 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8334375" y="47625"/>
-          <a:ext cx="3648075" cy="1828800"/>
+          <a:off x="8429625" y="695325"/>
+          <a:ext cx="1095375" cy="723900"/>
+          <a:chOff x="10401300" y="1847850"/>
+          <a:chExt cx="1095375" cy="723900"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" u="sng"/>
-            <a:t>HFC Check #</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" u="sng" baseline="0"/>
-            <a:t> 10</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" u="sng"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Check date</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t> variables.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>This check verifies that:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>    1. survey start and end dates are unmissing</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>    2. survey start and end dates are equal</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>    3. survey start dates are not before start of data collection</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>    4. survey start dates are not after the current date</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>    5. survey start dates within the same geographic cluster </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>        are within X days of each other (OPTIONAL).</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8334375" y="1971675"/>
-          <a:ext cx="3667125" cy="647700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10401300" y="1847850"/>
+            <a:ext cx="1095375" cy="723900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Required</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>Optional</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="1933575"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
               <a:shade val="50000"/>
             </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>startdate</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the variable containing the survey start date. </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8334375" y="2686050"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Rectangle 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11134727" y="2266950"/>
+            <a:ext cx="209548" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
               <a:shade val="50000"/>
             </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>enddate</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>This column specifies the variable containing the survey end date. </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8334375" y="3381375"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="92D050"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>surveystart</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>This column specifies the variable containing date that data collection began.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8334375" y="4076700"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>enum</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>area</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the variable representing geographic clusters.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8334375" y="4772025"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>days</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the number of days to that surveys within the same cluster should fall within</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9715500" y="5476875"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>output_variable</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies additional variable values to display in the output file. By default </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>id </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>and </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>enumerator</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t> are displayed.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="TextBox 10"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9715500" y="6172200"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>notes</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5704,8 +7948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -5718,21 +7962,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5759,7 +7995,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -5772,31 +8008,24 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4">
-        <v>42309</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -5833,7 +8062,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -5843,33 +8072,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
+      <c r="A2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="6">
-        <v>3</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -5899,91 +8119,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B6" s="3"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3"/>
@@ -6189,7 +8376,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -6202,7 +8389,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -6212,19 +8399,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A2" s="3"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3"/>
@@ -6250,7 +8435,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -6263,27 +8448,14 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
+      <c r="A3" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:D1">
@@ -6306,7 +8478,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A10" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -6316,65 +8488,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A6" s="3"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A7" s="3"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="A10" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
@@ -6394,52 +8542,47 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:3">
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:3">
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:3">
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:D1">
+  <conditionalFormatting sqref="A1:C1">
     <cfRule type="expression" dxfId="15" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:D1048576">
+  <conditionalFormatting sqref="A1:C1048576">
     <cfRule type="expression" dxfId="14" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6448,7 +8591,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -6458,65 +8601,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
       <c r="E5" s="3"/>
     </row>
   </sheetData>
@@ -6539,8 +8656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C602"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -6550,176 +8667,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="A31" s="3"/>
       <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
       <c r="C32" s="3"/>
     </row>
     <row r="34" spans="1:3">
@@ -7313,7 +9297,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -7335,47 +9319,23 @@
         <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>24</v>
-      </c>
+      <c r="A2" s="3"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>10000</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
+      <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="3"/>
@@ -7851,32 +9811,28 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="C3" s="3"/>
     </row>
     <row r="5" spans="1:3">

--- a/exercise/hfc_inputs.xlsx
+++ b/exercise/hfc_inputs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cboyer.IPA\Desktop\high-frequency-checks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cboyer.IPA\Desktop\high-frequency-checks\exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1. incomplete" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>variable</t>
   </si>
@@ -63,9 +63,6 @@
     <t>surveystart</t>
   </si>
   <si>
-    <t>iqr_multiplier</t>
-  </si>
-  <si>
     <t>submission_date</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>exclude_variable</t>
   </si>
   <si>
-    <t>output_variable</t>
-  </si>
-  <si>
     <t>coming soon</t>
   </si>
   <si>
@@ -106,6 +100,24 @@
   </si>
   <si>
     <t>if_condition</t>
+  </si>
+  <si>
+    <t>complete_percent</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>keep_current</t>
+  </si>
+  <si>
+    <t>keep_master</t>
+  </si>
+  <si>
+    <t>multiplier</t>
+  </si>
+  <si>
+    <t>other_variable</t>
   </si>
 </sst>
 </file>
@@ -521,13 +533,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -605,13 +617,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -680,13 +692,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -752,16 +764,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -770,7 +782,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="2876550"/>
+          <a:off x="6972300" y="4000500"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -807,7 +819,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>output_variable</a:t>
+            <a:t>keep</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
@@ -840,16 +852,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -858,7 +870,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="3571875"/>
+          <a:off x="6972300" y="4695825"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -912,13 +924,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1238250</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -930,7 +942,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9810750" y="314325"/>
+          <a:off x="11191875" y="314325"/>
           <a:ext cx="1095375" cy="723900"/>
           <a:chOff x="10401300" y="1847850"/>
           <a:chExt cx="1095375" cy="723900"/>
@@ -1079,6 +1091,78 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="2914649"/>
+          <a:ext cx="3667125" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>complete_percent</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies a minimum non-missing percentage for each interview. Any interview that falls below this threshold will be flagged as incomplete and included in the output.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1647,7 +1731,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>output_variable</a:t>
+            <a:t>keep</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
@@ -1998,7 +2082,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0"/>
-            <a:t>This check verifies whether certain continuous variables contain outliers, where an outlier is defined to be a certain multiple of the IQR.</a:t>
+            <a:t>This check verifies whether certain continuous variables contain outliers, where an outlier is defined to be a certain multiple of the IQR or SD (Note: IQR or SD is specified in the master_check file).</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2140,14 +2224,14 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>iqr_multiplier</a:t>
+            <a:t>multiplier</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies the multiple of the interquartile range that signifies an outlier.</a:t>
+            <a:t>This column specifies the multiple of the interquartile range or standard deviation that signifies an outlier.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0"/>
         </a:p>
@@ -2212,7 +2296,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>output_variable</a:t>
+            <a:t>keep</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
@@ -3406,7 +3490,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>output_variable</a:t>
+            <a:t>keep</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
@@ -3971,7 +4055,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>output_variable</a:t>
+            <a:t>keep</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
@@ -4462,7 +4546,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>output_variable</a:t>
+            <a:t>keep</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
@@ -4741,13 +4825,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -4840,13 +4924,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
@@ -4915,16 +4999,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4933,7 +5017,103 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5581650" y="2476500"/>
+          <a:off x="5581650" y="2476499"/>
+          <a:ext cx="3667125" cy="790576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>keep_current</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies additional variable values from the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>data set in memory </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>to display in the output file. By default </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>id </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>enumerator</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t> are displayed.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="4038600"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4970,30 +5150,14 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>output_variable</a:t>
+            <a:t>notes</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies additional variable values to display in the output file. By default </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>id </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>and </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>enumerator</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t> are displayed.</a:t>
+            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0"/>
         </a:p>
@@ -5003,85 +5167,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5581650" y="3181350"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>notes</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1238250</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -5093,7 +5185,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8429625" y="495300"/>
+          <a:off x="9810750" y="495300"/>
           <a:ext cx="1095375" cy="723900"/>
           <a:chOff x="10401300" y="1847850"/>
           <a:chExt cx="1095375" cy="723900"/>
@@ -5242,6 +5334,86 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="3333749"/>
+          <a:ext cx="3667125" cy="609601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>keep_master</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies additional variable values from the </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>master tracking list </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>set to display in the output file. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5532,7 +5704,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>output_variable</a:t>
+            <a:t>keep</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
@@ -5882,13 +6054,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -5966,13 +6138,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -6041,25 +6213,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4200525" y="2857500"/>
+          <a:off x="2819400" y="2867025"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6096,30 +6268,14 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>output_variable</a:t>
+            <a:t>notes</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column specifies additional variable values to display in the output file. By default </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>id </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>and </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>enumerator</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t> are displayed.</a:t>
+            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0"/>
         </a:p>
@@ -6129,85 +6285,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4200525" y="3562350"/>
-          <a:ext cx="3667125" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFC000"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>notes</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>This column is not used by Stata, rather it is included for the user's convenience to keep notes about inputs</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1228725</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -6219,7 +6303,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8420100" y="600075"/>
+          <a:off x="7038975" y="600075"/>
           <a:ext cx="1095375" cy="723900"/>
           <a:chOff x="10401300" y="1847850"/>
           <a:chExt cx="1095375" cy="723900"/>
@@ -6913,7 +6997,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>output_variable</a:t>
+            <a:t>keep</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
@@ -7192,13 +7276,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
@@ -7278,16 +7362,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7297,7 +7381,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5572125" y="2181225"/>
-          <a:ext cx="3667125" cy="600075"/>
+          <a:ext cx="3667125" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7353,16 +7437,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7371,7 +7455,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5572125" y="2867025"/>
+          <a:off x="5572125" y="3810000"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7408,7 +7492,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>output_variable</a:t>
+            <a:t>keep</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
         </a:p>
@@ -7441,16 +7525,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7459,7 +7543,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5572125" y="3571875"/>
+          <a:off x="5572125" y="4514850"/>
           <a:ext cx="3667125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7513,13 +7597,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1238250</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -7531,7 +7615,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8429625" y="695325"/>
+          <a:off x="9810750" y="695325"/>
           <a:ext cx="1095375" cy="723900"/>
           <a:chOff x="10401300" y="1847850"/>
           <a:chExt cx="1095375" cy="723900"/>
@@ -7678,6 +7762,81 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="2924175"/>
+          <a:ext cx="3667125" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>other_variable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>This column specifies the names of the original select_one or select_multiple questions containing the other choice options.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7946,41 +8105,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A8" activeCellId="1" sqref="D20 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:D1">
+  <conditionalFormatting sqref="A1:E1">
     <cfRule type="expression" dxfId="23" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:D1048576">
+  <conditionalFormatting sqref="A1:E1048576">
     <cfRule type="expression" dxfId="22" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
@@ -7994,7 +8156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
@@ -8011,16 +8173,16 @@
         <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8062,7 +8224,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -8072,13 +8234,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="3"/>
     </row>
@@ -8119,7 +8281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
@@ -8127,22 +8289,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -8376,7 +8538,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -8389,7 +8551,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -8399,13 +8561,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -8435,7 +8597,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -8448,10 +8610,10 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8478,7 +8640,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A2:B10"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -8488,10 +8650,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -8542,41 +8704,47 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3" s="3"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" s="3"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:C1">
+  <conditionalFormatting sqref="A1:D1">
     <cfRule type="expression" dxfId="15" priority="2">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:C1048576">
+  <conditionalFormatting sqref="A1:D1048576">
     <cfRule type="expression" dxfId="14" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
@@ -8591,7 +8759,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D6"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -8601,16 +8769,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8654,635 +8822,552 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C602"/>
+  <dimension ref="A1:B602"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="C2" s="3"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="C4" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3">
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="3"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" s="3"/>
-    </row>
-    <row r="30" spans="1:3">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3">
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="C32" s="3"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="C34" s="3"/>
-    </row>
-    <row r="45" spans="1:3">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3">
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="C47" s="3"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="C49" s="3"/>
-    </row>
-    <row r="60" spans="1:3">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:3">
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="C62" s="3"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="C64" s="3"/>
-    </row>
-    <row r="75" spans="1:3">
+    </row>
+    <row r="62" spans="1:2">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="B64" s="3"/>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-    </row>
-    <row r="76" spans="1:3">
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="C77" s="3"/>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="C79" s="3"/>
-    </row>
-    <row r="90" spans="1:3">
+    </row>
+    <row r="77" spans="1:2">
+      <c r="B77" s="3"/>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="B79" s="3"/>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-    </row>
-    <row r="91" spans="1:3">
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="C92" s="3"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="C94" s="3"/>
-    </row>
-    <row r="105" spans="1:3">
+    </row>
+    <row r="92" spans="1:2">
+      <c r="B92" s="3"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="B94" s="3"/>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-    </row>
-    <row r="106" spans="1:3">
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="C107" s="3"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="C109" s="3"/>
-    </row>
-    <row r="120" spans="1:3">
+    </row>
+    <row r="107" spans="1:2">
+      <c r="B107" s="3"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="B109" s="3"/>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-    </row>
-    <row r="121" spans="1:3">
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="C122" s="3"/>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="C124" s="3"/>
-    </row>
-    <row r="135" spans="1:3">
+    </row>
+    <row r="122" spans="1:2">
+      <c r="B122" s="3"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="B124" s="3"/>
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-    </row>
-    <row r="136" spans="1:3">
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="C137" s="3"/>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="C139" s="3"/>
-    </row>
-    <row r="150" spans="1:3">
+    </row>
+    <row r="137" spans="1:2">
+      <c r="B137" s="3"/>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="B139" s="3"/>
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-    </row>
-    <row r="151" spans="1:3">
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="C152" s="3"/>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="C154" s="3"/>
-    </row>
-    <row r="165" spans="1:3">
+    </row>
+    <row r="152" spans="1:2">
+      <c r="B152" s="3"/>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="B154" s="3"/>
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-    </row>
-    <row r="166" spans="1:3">
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="C167" s="3"/>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="C169" s="3"/>
-    </row>
-    <row r="180" spans="1:3">
+    </row>
+    <row r="167" spans="1:2">
+      <c r="B167" s="3"/>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="B169" s="3"/>
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-    </row>
-    <row r="181" spans="1:3">
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="C182" s="3"/>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="C184" s="3"/>
-    </row>
-    <row r="195" spans="1:3">
+    </row>
+    <row r="182" spans="1:2">
+      <c r="B182" s="3"/>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="B184" s="3"/>
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
-    </row>
-    <row r="196" spans="1:3">
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="C197" s="3"/>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="C199" s="3"/>
-    </row>
-    <row r="210" spans="1:3">
+    </row>
+    <row r="197" spans="1:2">
+      <c r="B197" s="3"/>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="B199" s="3"/>
+    </row>
+    <row r="210" spans="1:2">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
-    </row>
-    <row r="211" spans="1:3">
+    </row>
+    <row r="211" spans="1:2">
       <c r="A211" s="3"/>
-      <c r="B211" s="3"/>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="C212" s="3"/>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="C214" s="3"/>
-    </row>
-    <row r="225" spans="1:3">
+    </row>
+    <row r="212" spans="1:2">
+      <c r="B212" s="3"/>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="B214" s="3"/>
+    </row>
+    <row r="225" spans="1:2">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-    </row>
-    <row r="226" spans="1:3">
+    </row>
+    <row r="226" spans="1:2">
       <c r="A226" s="3"/>
-      <c r="B226" s="3"/>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="C227" s="3"/>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="C229" s="3"/>
-    </row>
-    <row r="240" spans="1:3">
+    </row>
+    <row r="227" spans="1:2">
+      <c r="B227" s="3"/>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="B229" s="3"/>
+    </row>
+    <row r="240" spans="1:2">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
-      <c r="C240" s="3"/>
-    </row>
-    <row r="241" spans="1:3">
+    </row>
+    <row r="241" spans="1:2">
       <c r="A241" s="3"/>
-      <c r="B241" s="3"/>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="C242" s="3"/>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="C244" s="3"/>
-    </row>
-    <row r="255" spans="1:3">
+    </row>
+    <row r="242" spans="1:2">
+      <c r="B242" s="3"/>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="B244" s="3"/>
+    </row>
+    <row r="255" spans="1:2">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
-      <c r="C255" s="3"/>
-    </row>
-    <row r="256" spans="1:3">
+    </row>
+    <row r="256" spans="1:2">
       <c r="A256" s="3"/>
-      <c r="B256" s="3"/>
-    </row>
-    <row r="257" spans="1:3">
-      <c r="C257" s="3"/>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="C259" s="3"/>
-    </row>
-    <row r="270" spans="1:3">
+    </row>
+    <row r="257" spans="1:2">
+      <c r="B257" s="3"/>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="B259" s="3"/>
+    </row>
+    <row r="270" spans="1:2">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
-      <c r="C270" s="3"/>
-    </row>
-    <row r="271" spans="1:3">
+    </row>
+    <row r="271" spans="1:2">
       <c r="A271" s="3"/>
-      <c r="B271" s="3"/>
-    </row>
-    <row r="272" spans="1:3">
-      <c r="C272" s="3"/>
-    </row>
-    <row r="274" spans="1:3">
-      <c r="C274" s="3"/>
-    </row>
-    <row r="285" spans="1:3">
+    </row>
+    <row r="272" spans="1:2">
+      <c r="B272" s="3"/>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="B274" s="3"/>
+    </row>
+    <row r="285" spans="1:2">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
-      <c r="C285" s="3"/>
-    </row>
-    <row r="286" spans="1:3">
+    </row>
+    <row r="286" spans="1:2">
       <c r="A286" s="3"/>
-      <c r="B286" s="3"/>
-    </row>
-    <row r="287" spans="1:3">
-      <c r="C287" s="3"/>
-    </row>
-    <row r="289" spans="1:3">
-      <c r="C289" s="3"/>
-    </row>
-    <row r="300" spans="1:3">
+    </row>
+    <row r="287" spans="1:2">
+      <c r="B287" s="3"/>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="B289" s="3"/>
+    </row>
+    <row r="300" spans="1:2">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
-      <c r="C300" s="3"/>
-    </row>
-    <row r="301" spans="1:3">
+    </row>
+    <row r="301" spans="1:2">
       <c r="A301" s="3"/>
-      <c r="B301" s="3"/>
-    </row>
-    <row r="302" spans="1:3">
-      <c r="C302" s="3"/>
-    </row>
-    <row r="304" spans="1:3">
-      <c r="C304" s="3"/>
-    </row>
-    <row r="315" spans="1:3">
+    </row>
+    <row r="302" spans="1:2">
+      <c r="B302" s="3"/>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="B304" s="3"/>
+    </row>
+    <row r="315" spans="1:2">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
-      <c r="C315" s="3"/>
-    </row>
-    <row r="316" spans="1:3">
+    </row>
+    <row r="316" spans="1:2">
       <c r="A316" s="3"/>
-      <c r="B316" s="3"/>
-    </row>
-    <row r="317" spans="1:3">
-      <c r="C317" s="3"/>
-    </row>
-    <row r="319" spans="1:3">
-      <c r="C319" s="3"/>
-    </row>
-    <row r="330" spans="1:3">
+    </row>
+    <row r="317" spans="1:2">
+      <c r="B317" s="3"/>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="B319" s="3"/>
+    </row>
+    <row r="330" spans="1:2">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
-      <c r="C330" s="3"/>
-    </row>
-    <row r="331" spans="1:3">
+    </row>
+    <row r="331" spans="1:2">
       <c r="A331" s="3"/>
-      <c r="B331" s="3"/>
-    </row>
-    <row r="332" spans="1:3">
-      <c r="C332" s="3"/>
-    </row>
-    <row r="334" spans="1:3">
-      <c r="C334" s="3"/>
-    </row>
-    <row r="345" spans="1:3">
+    </row>
+    <row r="332" spans="1:2">
+      <c r="B332" s="3"/>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="B334" s="3"/>
+    </row>
+    <row r="345" spans="1:2">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
-      <c r="C345" s="3"/>
-    </row>
-    <row r="346" spans="1:3">
+    </row>
+    <row r="346" spans="1:2">
       <c r="A346" s="3"/>
-      <c r="B346" s="3"/>
-    </row>
-    <row r="347" spans="1:3">
-      <c r="C347" s="3"/>
-    </row>
-    <row r="349" spans="1:3">
-      <c r="C349" s="3"/>
-    </row>
-    <row r="360" spans="1:3">
+    </row>
+    <row r="347" spans="1:2">
+      <c r="B347" s="3"/>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="B349" s="3"/>
+    </row>
+    <row r="360" spans="1:2">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
-      <c r="C360" s="3"/>
-    </row>
-    <row r="361" spans="1:3">
+    </row>
+    <row r="361" spans="1:2">
       <c r="A361" s="3"/>
-      <c r="B361" s="3"/>
-    </row>
-    <row r="362" spans="1:3">
-      <c r="C362" s="3"/>
-    </row>
-    <row r="364" spans="1:3">
-      <c r="C364" s="3"/>
-    </row>
-    <row r="375" spans="1:3">
+    </row>
+    <row r="362" spans="1:2">
+      <c r="B362" s="3"/>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="B364" s="3"/>
+    </row>
+    <row r="375" spans="1:2">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
-      <c r="C375" s="3"/>
-    </row>
-    <row r="376" spans="1:3">
+    </row>
+    <row r="376" spans="1:2">
       <c r="A376" s="3"/>
-      <c r="B376" s="3"/>
-    </row>
-    <row r="377" spans="1:3">
-      <c r="C377" s="3"/>
-    </row>
-    <row r="379" spans="1:3">
-      <c r="C379" s="3"/>
-    </row>
-    <row r="390" spans="1:3">
+    </row>
+    <row r="377" spans="1:2">
+      <c r="B377" s="3"/>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="B379" s="3"/>
+    </row>
+    <row r="390" spans="1:2">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
-      <c r="C390" s="3"/>
-    </row>
-    <row r="391" spans="1:3">
+    </row>
+    <row r="391" spans="1:2">
       <c r="A391" s="3"/>
-      <c r="B391" s="3"/>
-    </row>
-    <row r="392" spans="1:3">
-      <c r="C392" s="3"/>
-    </row>
-    <row r="394" spans="1:3">
-      <c r="C394" s="3"/>
-    </row>
-    <row r="405" spans="1:3">
+    </row>
+    <row r="392" spans="1:2">
+      <c r="B392" s="3"/>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="B394" s="3"/>
+    </row>
+    <row r="405" spans="1:2">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
-      <c r="C405" s="3"/>
-    </row>
-    <row r="406" spans="1:3">
+    </row>
+    <row r="406" spans="1:2">
       <c r="A406" s="3"/>
-      <c r="B406" s="3"/>
-    </row>
-    <row r="407" spans="1:3">
-      <c r="C407" s="3"/>
-    </row>
-    <row r="409" spans="1:3">
-      <c r="C409" s="3"/>
-    </row>
-    <row r="420" spans="1:3">
+    </row>
+    <row r="407" spans="1:2">
+      <c r="B407" s="3"/>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="B409" s="3"/>
+    </row>
+    <row r="420" spans="1:2">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
-      <c r="C420" s="3"/>
-    </row>
-    <row r="421" spans="1:3">
+    </row>
+    <row r="421" spans="1:2">
       <c r="A421" s="3"/>
-      <c r="B421" s="3"/>
-    </row>
-    <row r="422" spans="1:3">
-      <c r="C422" s="3"/>
-    </row>
-    <row r="424" spans="1:3">
-      <c r="C424" s="3"/>
-    </row>
-    <row r="435" spans="1:3">
+    </row>
+    <row r="422" spans="1:2">
+      <c r="B422" s="3"/>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="B424" s="3"/>
+    </row>
+    <row r="435" spans="1:2">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
-      <c r="C435" s="3"/>
-    </row>
-    <row r="436" spans="1:3">
+    </row>
+    <row r="436" spans="1:2">
       <c r="A436" s="3"/>
-      <c r="B436" s="3"/>
-    </row>
-    <row r="437" spans="1:3">
-      <c r="C437" s="3"/>
-    </row>
-    <row r="439" spans="1:3">
-      <c r="C439" s="3"/>
-    </row>
-    <row r="450" spans="1:3">
+    </row>
+    <row r="437" spans="1:2">
+      <c r="B437" s="3"/>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="B439" s="3"/>
+    </row>
+    <row r="450" spans="1:2">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
-      <c r="C450" s="3"/>
-    </row>
-    <row r="451" spans="1:3">
+    </row>
+    <row r="451" spans="1:2">
       <c r="A451" s="3"/>
-      <c r="B451" s="3"/>
-    </row>
-    <row r="452" spans="1:3">
-      <c r="C452" s="3"/>
-    </row>
-    <row r="454" spans="1:3">
-      <c r="C454" s="3"/>
-    </row>
-    <row r="465" spans="1:3">
+    </row>
+    <row r="452" spans="1:2">
+      <c r="B452" s="3"/>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="B454" s="3"/>
+    </row>
+    <row r="465" spans="1:2">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
-      <c r="C465" s="3"/>
-    </row>
-    <row r="466" spans="1:3">
+    </row>
+    <row r="466" spans="1:2">
       <c r="A466" s="3"/>
-      <c r="B466" s="3"/>
-    </row>
-    <row r="467" spans="1:3">
-      <c r="C467" s="3"/>
-    </row>
-    <row r="469" spans="1:3">
-      <c r="C469" s="3"/>
-    </row>
-    <row r="480" spans="1:3">
+    </row>
+    <row r="467" spans="1:2">
+      <c r="B467" s="3"/>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="B469" s="3"/>
+    </row>
+    <row r="480" spans="1:2">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
-      <c r="C480" s="3"/>
-    </row>
-    <row r="481" spans="1:3">
+    </row>
+    <row r="481" spans="1:2">
       <c r="A481" s="3"/>
-      <c r="B481" s="3"/>
-    </row>
-    <row r="482" spans="1:3">
-      <c r="C482" s="3"/>
-    </row>
-    <row r="484" spans="1:3">
-      <c r="C484" s="3"/>
-    </row>
-    <row r="495" spans="1:3">
+    </row>
+    <row r="482" spans="1:2">
+      <c r="B482" s="3"/>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="B484" s="3"/>
+    </row>
+    <row r="495" spans="1:2">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
-      <c r="C495" s="3"/>
-    </row>
-    <row r="496" spans="1:3">
+    </row>
+    <row r="496" spans="1:2">
       <c r="A496" s="3"/>
-      <c r="B496" s="3"/>
-    </row>
-    <row r="497" spans="1:3">
-      <c r="C497" s="3"/>
-    </row>
-    <row r="499" spans="1:3">
-      <c r="C499" s="3"/>
-    </row>
-    <row r="510" spans="1:3">
+    </row>
+    <row r="497" spans="1:2">
+      <c r="B497" s="3"/>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="B499" s="3"/>
+    </row>
+    <row r="510" spans="1:2">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
-      <c r="C510" s="3"/>
-    </row>
-    <row r="511" spans="1:3">
+    </row>
+    <row r="511" spans="1:2">
       <c r="A511" s="3"/>
-      <c r="B511" s="3"/>
-    </row>
-    <row r="512" spans="1:3">
-      <c r="C512" s="3"/>
-    </row>
-    <row r="514" spans="1:3">
-      <c r="C514" s="3"/>
-    </row>
-    <row r="525" spans="1:3">
+    </row>
+    <row r="512" spans="1:2">
+      <c r="B512" s="3"/>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="B514" s="3"/>
+    </row>
+    <row r="525" spans="1:2">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
-      <c r="C525" s="3"/>
-    </row>
-    <row r="526" spans="1:3">
+    </row>
+    <row r="526" spans="1:2">
       <c r="A526" s="3"/>
-      <c r="B526" s="3"/>
-    </row>
-    <row r="527" spans="1:3">
-      <c r="C527" s="3"/>
-    </row>
-    <row r="529" spans="1:3">
-      <c r="C529" s="3"/>
-    </row>
-    <row r="540" spans="1:3">
+    </row>
+    <row r="527" spans="1:2">
+      <c r="B527" s="3"/>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="B529" s="3"/>
+    </row>
+    <row r="540" spans="1:2">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
-      <c r="C540" s="3"/>
-    </row>
-    <row r="541" spans="1:3">
+    </row>
+    <row r="541" spans="1:2">
       <c r="A541" s="3"/>
-      <c r="B541" s="3"/>
-    </row>
-    <row r="542" spans="1:3">
-      <c r="C542" s="3"/>
-    </row>
-    <row r="544" spans="1:3">
-      <c r="C544" s="3"/>
-    </row>
-    <row r="555" spans="1:3">
+    </row>
+    <row r="542" spans="1:2">
+      <c r="B542" s="3"/>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="B544" s="3"/>
+    </row>
+    <row r="555" spans="1:2">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
-      <c r="C555" s="3"/>
-    </row>
-    <row r="556" spans="1:3">
+    </row>
+    <row r="556" spans="1:2">
       <c r="A556" s="3"/>
-      <c r="B556" s="3"/>
-    </row>
-    <row r="557" spans="1:3">
-      <c r="C557" s="3"/>
-    </row>
-    <row r="559" spans="1:3">
-      <c r="C559" s="3"/>
-    </row>
-    <row r="570" spans="1:3">
+    </row>
+    <row r="557" spans="1:2">
+      <c r="B557" s="3"/>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="B559" s="3"/>
+    </row>
+    <row r="570" spans="1:2">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
-      <c r="C570" s="3"/>
-    </row>
-    <row r="571" spans="1:3">
+    </row>
+    <row r="571" spans="1:2">
       <c r="A571" s="3"/>
-      <c r="B571" s="3"/>
-    </row>
-    <row r="572" spans="1:3">
-      <c r="C572" s="3"/>
-    </row>
-    <row r="574" spans="1:3">
-      <c r="C574" s="3"/>
-    </row>
-    <row r="585" spans="1:3">
+    </row>
+    <row r="572" spans="1:2">
+      <c r="B572" s="3"/>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="B574" s="3"/>
+    </row>
+    <row r="585" spans="1:2">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
-      <c r="C585" s="3"/>
-    </row>
-    <row r="586" spans="1:3">
+    </row>
+    <row r="586" spans="1:2">
       <c r="A586" s="3"/>
-      <c r="B586" s="3"/>
-    </row>
-    <row r="587" spans="1:3">
-      <c r="C587" s="3"/>
-    </row>
-    <row r="589" spans="1:3">
-      <c r="C589" s="3"/>
-    </row>
-    <row r="600" spans="1:3">
+    </row>
+    <row r="587" spans="1:2">
+      <c r="B587" s="3"/>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="B589" s="3"/>
+    </row>
+    <row r="600" spans="1:2">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
-      <c r="C600" s="3"/>
-    </row>
-    <row r="601" spans="1:3">
+    </row>
+    <row r="601" spans="1:2">
       <c r="A601" s="3"/>
-      <c r="B601" s="3"/>
-    </row>
-    <row r="602" spans="1:3">
-      <c r="C602" s="3"/>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="B602" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:C1">
+  <conditionalFormatting sqref="A1:B1">
     <cfRule type="expression" dxfId="11" priority="3">
       <formula>$A1="variable"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:C1048576">
+  <conditionalFormatting sqref="A1:B1048576">
     <cfRule type="expression" dxfId="10" priority="2">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>
@@ -9296,8 +9381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C4"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -9319,10 +9404,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -9808,82 +9893,93 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="C5" s="3"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="C9" s="3"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="C11" s="3"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="C15" s="3"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="C17" s="3"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:C1">
+  <conditionalFormatting sqref="A1:D1">
     <cfRule type="expression" dxfId="7" priority="2">
       <formula>$A1="specify_variable"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:C1048576">
+  <conditionalFormatting sqref="A1:D1048576">
     <cfRule type="expression" dxfId="6" priority="1">
       <formula>$A1&lt;&gt;""</formula>
     </cfRule>

--- a/exercise/hfc_inputs.xlsx
+++ b/exercise/hfc_inputs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4650" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1. incomplete" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -7918,6 +7918,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7953,6 +7970,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8108,7 +8142,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" activeCellId="1" sqref="D20 A8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -8551,7 +8585,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -8825,7 +8859,7 @@
   <dimension ref="A1:B602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -9381,8 +9415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -9895,8 +9929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
